--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -3,26 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B73CA-15D5-414C-B99D-6DF5DBA75C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1A4807-A062-4667-9CBB-2C695E8A5266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3540" windowWidth="17745" windowHeight="10605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="次页" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="A_NO">次页!$A$3</definedName>
+    <definedName name="A5_NAME">次页!$A$5</definedName>
+    <definedName name="AAAABBB">次页!$D$1</definedName>
+    <definedName name="B_Name">次页!$B$3</definedName>
     <definedName name="P_CN_PartNumberShortDesc">次页!$E$5</definedName>
     <definedName name="P_Qty">次页!$G$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
+    <definedName name="公司_COMPANY">次页!$A$1</definedName>
   </definedNames>
   <calcPr calcId="122211" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>管道综合材料表
 Overall Material Take-off</t>
@@ -788,9 +793,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>玻璃棉制品 管壳 Ø33.7×40</t>
   </si>
   <si>
@@ -942,7 +944,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1396,6 +1398,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1440,15 +1451,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1920,157 +1922,157 @@
       <selection activeCell="F4" sqref="F4:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="16" width="10.125" customWidth="1"/>
     <col min="17" max="20" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:20" ht="30" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="21" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="22"/>
-    </row>
-    <row r="3" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3" spans="2:20" ht="30" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="23" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="25"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" customHeight="1">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25"/>
-    </row>
-    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="23" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="2:20" ht="30" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="25"/>
-    </row>
-    <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="23" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="2:20" ht="30" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="25"/>
-    </row>
-    <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="2:20" ht="27" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2095,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:20" ht="27" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2114,7 +2116,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:20" ht="27" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2135,7 +2137,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:20" ht="27" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2156,7 +2158,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:20" ht="27" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2177,7 +2179,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:20" ht="27" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2198,7 +2200,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:20" ht="27" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2219,7 +2221,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:20" ht="27" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2240,7 +2242,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:20" ht="27" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2261,7 +2263,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:20" ht="27" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2282,7 +2284,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:20" ht="27" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2303,7 +2305,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:20" ht="27" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2324,7 +2326,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:20" ht="27" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2345,7 +2347,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:20" ht="27" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2366,7 +2368,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:20" ht="27" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2387,7 +2389,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:20" ht="27" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2408,7 +2410,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:20" ht="27" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2429,8 +2431,8 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29"/>
+    <row r="25" spans="2:20" ht="27" customHeight="1">
+      <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -2450,8 +2452,8 @@
       <c r="S25" s="10"/>
       <c r="T25" s="11"/>
     </row>
-    <row r="26" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29"/>
+    <row r="26" spans="2:20" ht="27" customHeight="1">
+      <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -2471,8 +2473,8 @@
       <c r="S26" s="10"/>
       <c r="T26" s="11"/>
     </row>
-    <row r="27" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29"/>
+    <row r="27" spans="2:20" ht="27" customHeight="1">
+      <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -2492,8 +2494,8 @@
       <c r="S27" s="10"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="29"/>
+    <row r="28" spans="2:20" ht="27" customHeight="1">
+      <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -2513,12 +2515,12 @@
       <c r="S28" s="10"/>
       <c r="T28" s="11"/>
     </row>
-    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="30" t="s">
+    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1">
+      <c r="B29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="12" t="s">
         <v>2</v>
       </c>
@@ -2601,10 +2603,10 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="4" width="15.625" customWidth="1"/>
@@ -2615,7 +2617,7 @@
     <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +2638,7 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="30" customHeight="1">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -2651,7 +2653,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="24.95" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2711,9 +2713,9 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
+    <row r="5" spans="1:13" ht="14.25">
+      <c r="A5" s="3">
+        <v>888</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2728,307 +2730,307 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="14.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="14.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="14.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="14.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="14.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="14.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="14.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="14.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="14.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="14.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="14.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3043,7 +3045,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3058,7 +3060,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3073,7 +3075,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3088,7 +3090,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3103,7 +3105,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3118,7 +3120,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3133,7 +3135,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3148,7 +3150,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3163,7 +3165,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3178,7 +3180,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3193,8 +3195,8 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:13" ht="27" customHeight="1"/>
+    <row r="30" spans="1:13" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:C2"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -3,21 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1A4807-A062-4667-9CBB-2C695E8A5266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE620DDD-3C8E-4D68-BD6A-BDA6A66EB95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3540" windowWidth="17745" windowHeight="10605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="次页" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="A_NO">次页!$A$3</definedName>
-    <definedName name="A5_NAME">次页!$A$5</definedName>
-    <definedName name="AAAABBB">次页!$D$1</definedName>
-    <definedName name="B_Name">次页!$B$3</definedName>
-    <definedName name="P_CN_PartNumberShortDesc">次页!$E$5</definedName>
-    <definedName name="P_Qty">次页!$G$5</definedName>
+    <definedName name="CN_PartNumberLongDesc" localSheetId="1">次页!$E$3</definedName>
+    <definedName name="Code" localSheetId="1">次页!$B$3</definedName>
+    <definedName name="ComponentTypeName" localSheetId="1">次页!$A$3</definedName>
+    <definedName name="DesignQty" localSheetId="1">次页!$G$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
     <definedName name="公司_COMPANY">次页!$A$1</definedName>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>管道综合材料表
 Overall Material Take-off</t>
@@ -791,153 +789,6 @@
  Consult Certificate No:20120070053 Class A</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃棉制品 管壳 Ø33.7×40</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>玻璃棉制品 管壳 Ø21.3×40</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>玻璃棉制品 管壳 Ø60.3×40</t>
-  </si>
-  <si>
-    <t>24.13</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>25.34</t>
-  </si>
-  <si>
-    <t>玻璃棉制品 管壳 Ø114.3×40</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>玻璃棉制品 管壳 Ø168.3×40</t>
-  </si>
-  <si>
-    <t>25.41</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>26.68</t>
-  </si>
-  <si>
-    <t>玻璃棉制品 管壳 Ø48.3×40</t>
-  </si>
-  <si>
-    <t>58.2</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>61.11</t>
-  </si>
-  <si>
-    <t>铝合金薄板 平板 0.50mm</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>78.44</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>82.4</t>
-  </si>
-  <si>
-    <t>十字槽盘头自攻螺钉 M4×12</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>14.64</t>
-  </si>
-  <si>
-    <t>15.35</t>
-  </si>
-  <si>
-    <t>玻璃棉制品 管壳 Ø88.9×40</t>
-  </si>
-  <si>
-    <t>18.68</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>19.62</t>
-  </si>
-  <si>
-    <t>玻璃棉制品 毡 40mm</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>铝合金薄板 平板 0.80mm</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>6.35</t>
-  </si>
-  <si>
-    <t>镀锌钢带 20×0.5（宽×厚）</t>
-  </si>
-  <si>
-    <t>13.03</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>13.66</t>
   </si>
 </sst>
 </file>
@@ -976,6 +827,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1374,6 +1226,57 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,15 +1289,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1406,51 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1932,648 +1784,624 @@
     <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20" ht="30" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="24" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="2:20" ht="30" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="26" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="28"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="26" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="28"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="26" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="2:20" ht="27" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="2:20" ht="27" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="2:20" ht="27" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
     </row>
     <row r="11" spans="2:20" ht="27" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:20" ht="27" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
     </row>
     <row r="13" spans="2:20" ht="27" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
     </row>
     <row r="14" spans="2:20" ht="27" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
     </row>
     <row r="15" spans="2:20" ht="27" customHeight="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="8"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
     </row>
     <row r="16" spans="2:20" ht="27" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="25"/>
     </row>
     <row r="17" spans="2:20" ht="27" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:20" ht="27" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="25"/>
     </row>
     <row r="19" spans="2:20" ht="27" customHeight="1">
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="8"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25"/>
     </row>
     <row r="20" spans="2:20" ht="27" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25"/>
     </row>
     <row r="21" spans="2:20" ht="27" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="8"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
     </row>
     <row r="22" spans="2:20" ht="27" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="25"/>
     </row>
     <row r="23" spans="2:20" ht="27" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="8"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="25"/>
     </row>
     <row r="24" spans="2:20" ht="27" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="8"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="25"/>
     </row>
     <row r="25" spans="2:20" ht="27" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="11"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="27"/>
     </row>
     <row r="26" spans="2:20" ht="27" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="11"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="27"/>
     </row>
     <row r="27" spans="2:20" ht="27" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="11"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="27"/>
     </row>
     <row r="28" spans="2:20" ht="27" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="11"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="27"/>
     </row>
     <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="12" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12" t="s">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12" t="s">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="F2:P3"/>
-    <mergeCell ref="F4:P7"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C2:E4"/>
     <mergeCell ref="B8:T24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="R25:T25"/>
@@ -2590,6 +2418,30 @@
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F2:P3"/>
+    <mergeCell ref="F4:P7"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
@@ -2603,7 +2455,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2714,9 +2566,7 @@
       <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" ht="14.25">
-      <c r="A5" s="3">
-        <v>888</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2735,21 +2585,11 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2760,21 +2600,11 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2785,21 +2615,11 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -2810,21 +2630,11 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2835,21 +2645,11 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2860,21 +2660,11 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2885,21 +2675,11 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2910,21 +2690,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2935,21 +2705,11 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2960,21 +2720,11 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2985,21 +2735,11 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -3010,21 +2750,11 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE620DDD-3C8E-4D68-BD6A-BDA6A66EB95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E967D499-EF62-4173-B8A0-8866B1B5D550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,11 +13,13 @@
   </sheets>
   <definedNames>
     <definedName name="CN_PartNumberLongDesc" localSheetId="1">次页!$E$3</definedName>
-    <definedName name="Code" localSheetId="1">次页!$B$3</definedName>
-    <definedName name="ComponentTypeName" localSheetId="1">次页!$A$3</definedName>
+    <definedName name="CN_SizeDesc" localSheetId="1">次页!$D$3</definedName>
+    <definedName name="Code">次页!$L$3</definedName>
+    <definedName name="ComponentTypeName" localSheetId="1">次页!$B$3</definedName>
     <definedName name="DesignQty" localSheetId="1">次页!$G$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
+    <definedName name="SeqNo" localSheetId="1">次页!$A$3</definedName>
     <definedName name="公司_COMPANY">次页!$A$1</definedName>
   </definedNames>
   <calcPr calcId="122211" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
@@ -795,7 +797,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +915,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1217,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1226,11 +1235,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1277,33 +1313,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1350,6 +1359,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1784,624 +1796,648 @@
     <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20" ht="30" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="15" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="2:20" ht="30" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="17" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="17" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="17" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="2:20" ht="27" customHeight="1">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="2:20" ht="27" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="2:20" ht="27" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="2:20" ht="27" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="2:20" ht="27" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="2:20" ht="27" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="2:20" ht="27" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="2:20" ht="27" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="2:20" ht="27" customHeight="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="2:20" ht="27" customHeight="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="2:20" ht="27" customHeight="1">
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="25"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="2:20" ht="27" customHeight="1">
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20" spans="2:20" ht="27" customHeight="1">
-      <c r="B20" s="26"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="2:20" ht="27" customHeight="1">
-      <c r="B21" s="26"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" spans="2:20" ht="27" customHeight="1">
-      <c r="B22" s="26"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="2:20" ht="27" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="2:20" ht="27" customHeight="1">
-      <c r="B24" s="26"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="25"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="2:20" ht="27" customHeight="1">
-      <c r="B25" s="29"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="27"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11"/>
     </row>
     <row r="26" spans="2:20" ht="27" customHeight="1">
-      <c r="B26" s="29"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="27"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" spans="2:20" ht="27" customHeight="1">
-      <c r="B27" s="29"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="27"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" spans="2:20" ht="27" customHeight="1">
-      <c r="B28" s="29"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="27"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6" t="s">
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="28"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F2:P3"/>
+    <mergeCell ref="F4:P7"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C2:E4"/>
     <mergeCell ref="B8:T24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="R25:T25"/>
@@ -2418,30 +2454,6 @@
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="F2:P3"/>
-    <mergeCell ref="F4:P7"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
@@ -2455,7 +2467,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2509,7 +2521,7 @@
       <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="40" t="s">
@@ -2565,7 +2577,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" ht="14.25">
+    <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2580,7 +2592,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="14.25">
+    <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2595,7 +2607,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25">
+    <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2610,7 +2622,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25">
+    <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2625,7 +2637,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25">
+    <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2640,7 +2652,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25">
+    <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2655,7 +2667,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="14.25">
+    <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2670,7 +2682,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2685,7 +2697,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25">
+    <row r="13" spans="1:13" ht="18" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2700,7 +2712,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25">
+    <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2715,7 +2727,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25">
+    <row r="15" spans="1:13" ht="18" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2730,7 +2742,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25">
+    <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2745,7 +2757,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="14.25">
+    <row r="17" spans="1:13" ht="18" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2760,7 +2772,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2775,7 +2787,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2790,7 +2802,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2805,7 +2817,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2820,7 +2832,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2835,7 +2847,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2850,7 +2862,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2865,7 +2877,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2880,7 +2892,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2895,7 +2907,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2910,7 +2922,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -3,26 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E967D499-EF62-4173-B8A0-8866B1B5D550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A2796-09EC-44F0-8511-4DD1775CB89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1470" windowWidth="19905" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="次页" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CN_PartNumberLongDesc" localSheetId="1">次页!$E$3</definedName>
-    <definedName name="CN_SizeDesc" localSheetId="1">次页!$D$3</definedName>
-    <definedName name="Code">次页!$L$3</definedName>
-    <definedName name="ComponentTypeName" localSheetId="1">次页!$B$3</definedName>
-    <definedName name="DesignQty" localSheetId="1">次页!$G$4</definedName>
+    <definedName name="P_CN_PartNumberLongDesc" localSheetId="1">次页!$E$3</definedName>
+    <definedName name="P_CN_SizeDesc" localSheetId="1">次页!$D$3</definedName>
+    <definedName name="P_Code">次页!$L$3</definedName>
+    <definedName name="P_ComponentTypeName" localSheetId="1">次页!$B$3</definedName>
+    <definedName name="P_DesignQty" localSheetId="1">次页!$G$4</definedName>
+    <definedName name="P_SeqNo" localSheetId="1">次页!$A$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
-    <definedName name="SeqNo" localSheetId="1">次页!$A$3</definedName>
     <definedName name="公司_COMPANY">次页!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="122211" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="122211" fullPrecision="0"/>
 </workbook>
 </file>
 
@@ -504,27 +504,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>日期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Date: </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>设计阶段</t>
     </r>
     <r>
@@ -540,6 +519,154 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">中国石油集团工程设计有限
+责任公司西南分公司
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHINA PETROLEUM 
+ENGINEERING CO., LTD 
+SOUTHWEST COMPANY</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>设计证书编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:A111001641 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">综甲
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Design Certificate No:A111001641 Grade A     
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>勘察证书编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:010065-kj  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">甲级
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Survey Certificate No:010065-kj Class A     
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>咨询证书编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>工咨甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20120070053
+ Consult Certificate No:20120070053 Class A</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$ProjectCode$</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -548,7 +675,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">（工程名称）
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -558,11 +685,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(Project Name)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>$ProjectName$</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$ProjectName$</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -570,7 +700,8 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>内蒙古西部天然气股份有限公司旗下营</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -579,216 +710,28 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>4×50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
+      <t>$ProjectCode$</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>万立方米</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
+      <t>日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">日天然气液化项目
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>原料气增压装置（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>单元）管道安装部分</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">中国石油集团工程设计有限
-责任公司西南分公司
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CHINA PETROLEUM 
-ENGINEERING CO., LTD 
-SOUTHWEST COMPANY</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>设计证书编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:A111001641 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">综甲
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Design Certificate No:A111001641 Grade A     
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>勘察证书编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:010065-kj  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">甲级
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Survey Certificate No:010065-kj Class A     
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>咨询证书编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>工咨甲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>20120070053
- Consult Certificate No:20120070053 Class A</t>
+      <t xml:space="preserve"> Date: $DateTime$</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -797,7 +740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,6 +1178,57 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,15 +1241,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1267,51 +1255,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1782,662 +1725,638 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:P7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="16" width="10.125" customWidth="1"/>
     <col min="17" max="20" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:20" ht="30" customHeight="1">
+    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="20" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-    </row>
-    <row r="3" spans="2:20" ht="30" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1">
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
-    </row>
-    <row r="6" spans="2:20" ht="30" customHeight="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="26" t="s">
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+    </row>
+    <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="2:20" ht="30" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="2:20" ht="27" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="2:20" ht="27" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="2:20" ht="27" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="2:20" ht="27" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="2:20" ht="27" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="2:20" ht="27" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="2:20" ht="27" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="2:20" ht="27" customHeight="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="2:20" ht="27" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="2:20" ht="27" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="2:20" ht="27" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="2:20" ht="27" customHeight="1">
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="2:20" ht="27" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="2:20" ht="27" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="2:20" ht="27" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="2:20" ht="27" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="2:20" ht="27" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="2:20" ht="27" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="2:20" ht="27" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="2:20" ht="27" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" spans="2:20" ht="27" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="11"/>
-    </row>
-    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1">
-      <c r="B29" s="15" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
+    </row>
+    <row r="9" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="25"/>
+    </row>
+    <row r="23" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="25"/>
+    </row>
+    <row r="24" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="25"/>
+    </row>
+    <row r="25" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="29"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="27"/>
+    </row>
+    <row r="26" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="29"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="27"/>
+    </row>
+    <row r="27" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="29"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="27"/>
+    </row>
+    <row r="28" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="29"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="27"/>
+    </row>
+    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="12" t="s">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12" t="s">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12" t="s">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="F2:P3"/>
-    <mergeCell ref="F4:P7"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C2:E4"/>
     <mergeCell ref="B8:T24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="R25:T25"/>
@@ -2454,6 +2373,30 @@
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F2:P3"/>
+    <mergeCell ref="F4:P7"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C2:E4"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
@@ -2466,11 +2409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="4" width="15.625" customWidth="1"/>
@@ -2481,7 +2424,7 @@
     <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -2502,7 +2445,7 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -2517,7 +2460,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1">
+    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
@@ -2552,7 +2495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2577,7 +2520,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2592,7 +2535,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2607,7 +2550,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2622,7 +2565,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2637,7 +2580,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2652,7 +2595,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2667,7 +2610,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2682,7 +2625,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2697,7 +2640,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2712,7 +2655,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2727,7 +2670,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2742,7 +2685,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2757,7 +2700,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2772,7 +2715,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2787,7 +2730,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2802,7 +2745,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2817,7 +2760,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2832,7 +2775,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2847,7 +2790,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2862,7 +2805,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2877,7 +2820,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2892,7 +2835,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2907,7 +2850,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2922,7 +2865,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2937,8 +2880,8 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="27" customHeight="1"/>
-    <row r="30" spans="1:13" ht="27" customHeight="1"/>
+    <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:C2"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A2796-09EC-44F0-8511-4DD1775CB89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7DBB1-8E4F-4398-957A-6114D329730A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1470" windowWidth="19905" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="765" windowWidth="24435" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="次页" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="P_CN_PartNumberLongDesc" localSheetId="1">次页!$E$3</definedName>
-    <definedName name="P_CN_SizeDesc" localSheetId="1">次页!$D$3</definedName>
-    <definedName name="P_Code">次页!$L$3</definedName>
-    <definedName name="P_ComponentTypeName" localSheetId="1">次页!$B$3</definedName>
-    <definedName name="P_DesignQty" localSheetId="1">次页!$G$4</definedName>
+    <definedName name="C_Code">次页!$C$4</definedName>
+    <definedName name="C_EN_ShortDesc">次页!$D$4</definedName>
+    <definedName name="C_Seq">次页!$B$4</definedName>
+    <definedName name="P_CN_ShortDesc" localSheetId="1">次页!$K$3</definedName>
+    <definedName name="P_CN_SizeDesc" localSheetId="1">次页!$J$3</definedName>
+    <definedName name="P_Code">次页!$R$3</definedName>
+    <definedName name="P_ComponentTypeName" localSheetId="1">次页!$H$3</definedName>
+    <definedName name="P_DesignQty" localSheetId="1">次页!$M$4</definedName>
     <definedName name="P_SeqNo" localSheetId="1">次页!$A$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$S</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
+    <definedName name="T_Desc">次页!$E$4</definedName>
+    <definedName name="T_Discipline">次页!$G$4</definedName>
+    <definedName name="T_Unit">次页!$F$4</definedName>
     <definedName name="公司_COMPANY">次页!$A$1</definedName>
   </definedNames>
   <calcPr calcId="122211" fullPrecision="0"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>管道综合材料表
 Overall Material Take-off</t>
@@ -733,6 +739,30 @@
       </rPr>
       <t xml:space="preserve"> Date: $DateTime$</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资编码序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资编码英文描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1178,11 +1208,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1229,33 +1289,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1305,6 +1338,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1725,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:P3"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1739,624 +1775,648 @@
     <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="15" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="17" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="17" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="17" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
     </row>
     <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="25"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="26"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="26"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="26"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="26"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="25"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="27"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="27"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="27"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="29"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="27"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6" t="s">
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6" t="s">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="28"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F2:P3"/>
+    <mergeCell ref="F4:P7"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C2:E4"/>
     <mergeCell ref="B8:T24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="R25:T25"/>
@@ -2373,30 +2433,6 @@
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="F2:P3"/>
-    <mergeCell ref="F4:P7"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
@@ -2407,120 +2443,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="55.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="1" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="55.625" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="16.625" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
       <c r="K1" s="44"/>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="S1" s="36"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="I3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="J3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="K3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="L3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="M3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="S3" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="5" t="s">
+    <row r="4" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42"/>
+      <c r="B4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2534,8 +2606,14 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2549,8 +2627,14 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2564,8 +2648,14 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2579,8 +2669,14 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2594,8 +2690,14 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2609,8 +2711,14 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2624,8 +2732,14 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2639,8 +2753,14 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2654,8 +2774,14 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2669,8 +2795,14 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2684,8 +2816,14 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2699,8 +2837,14 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2714,8 +2858,14 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2729,8 +2879,14 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2744,8 +2900,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2759,8 +2921,14 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2774,8 +2942,14 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2789,8 +2963,14 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2804,8 +2984,14 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2819,8 +3005,14 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2834,8 +3026,14 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2849,8 +3047,14 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2864,8 +3068,14 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2879,25 +3089,31 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J1:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="D1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -3,23 +3,39 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A2796-09EC-44F0-8511-4DD1775CB89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546DCDB-23AC-4EA9-9356-25C4596D099B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1470" windowWidth="19905" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="次页" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="P_CN_PartNumberLongDesc" localSheetId="1">次页!$E$3</definedName>
-    <definedName name="P_CN_SizeDesc" localSheetId="1">次页!$D$3</definedName>
-    <definedName name="P_Code">次页!$L$3</definedName>
-    <definedName name="P_ComponentTypeName" localSheetId="1">次页!$B$3</definedName>
-    <definedName name="P_DesignQty" localSheetId="1">次页!$G$4</definedName>
-    <definedName name="P_SeqNo" localSheetId="1">次页!$A$3</definedName>
+    <definedName name="C_CN_LongDesc" localSheetId="1">次页!$O$5</definedName>
+    <definedName name="C_CN_ShortDesc" localSheetId="1">次页!$L$5</definedName>
+    <definedName name="C_Code" localSheetId="1">次页!$K$5</definedName>
+    <definedName name="C_EN_LongDesc" localSheetId="1">次页!$P$5</definedName>
+    <definedName name="C_EN_ShortDesc" localSheetId="1">次页!$M$5</definedName>
+    <definedName name="C_RU_LongDesc" localSheetId="1">次页!$Q$5</definedName>
+    <definedName name="C_RU_ShortDesc" localSheetId="1">次页!$N$5</definedName>
+    <definedName name="ComponentTypeName" localSheetId="1">次页!$V$5</definedName>
+    <definedName name="DesignQty" localSheetId="1">次页!$W$5</definedName>
+    <definedName name="P_CN_LongDesc" localSheetId="1">次页!$E$5</definedName>
+    <definedName name="P_CN_ShortDesc" localSheetId="1">次页!$B$5</definedName>
+    <definedName name="P_CN_SizeDesc" localSheetId="1">次页!$H$5</definedName>
+    <definedName name="P_Code" localSheetId="1">次页!$A$5</definedName>
+    <definedName name="P_EN_LongDesc" localSheetId="1">次页!$F$5</definedName>
+    <definedName name="P_EN_ShortDesc" localSheetId="1">次页!$C$5</definedName>
+    <definedName name="P_EN_SizeDesc" localSheetId="1">次页!$I$5</definedName>
+    <definedName name="P_RU_LongDesc" localSheetId="1">次页!$G$5</definedName>
+    <definedName name="P_RU_ShortDesc" localSheetId="1">次页!$D$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
+    <definedName name="T_Code" localSheetId="1">次页!$R$5</definedName>
+    <definedName name="T_Desc" localSheetId="1">次页!$S$5</definedName>
+    <definedName name="T_Discipline" localSheetId="1">次页!$U$5</definedName>
+    <definedName name="T_Unit" localSheetId="1">次页!$T$5</definedName>
     <definedName name="公司_COMPANY">次页!$A$1</definedName>
   </definedNames>
   <calcPr calcId="122211" fullPrecision="0"/>
@@ -27,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>管道综合材料表
 Overall Material Take-off</t>
@@ -501,28 +517,6 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>设计阶段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:
-Phase:</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="134"/>
@@ -734,13 +728,106 @@
       <t xml:space="preserve"> Date: $DateTime$</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>设计阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:$Revision$--$Version$
+Phase:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Code</t>
+  </si>
+  <si>
+    <t>P_CN_ShortDesc</t>
+  </si>
+  <si>
+    <t>P_EN_ShortDesc</t>
+  </si>
+  <si>
+    <t>P_RU_ShortDesc</t>
+  </si>
+  <si>
+    <t>P_CN_LongDesc</t>
+  </si>
+  <si>
+    <t>P_EN_LongDesc</t>
+  </si>
+  <si>
+    <t>P_RU_LongDesc</t>
+  </si>
+  <si>
+    <t>P_CN_SizeDesc</t>
+  </si>
+  <si>
+    <t>P_EN_SizeDesc</t>
+  </si>
+  <si>
+    <t>P_RU_SizeDesc</t>
+  </si>
+  <si>
+    <t>C_Code</t>
+  </si>
+  <si>
+    <t>C_CN_ShortDesc</t>
+  </si>
+  <si>
+    <t>C_EN_ShortDesc</t>
+  </si>
+  <si>
+    <t>C_RU_ShortDesc</t>
+  </si>
+  <si>
+    <t>C_CN_LongDesc</t>
+  </si>
+  <si>
+    <t>C_EN_LongDesc</t>
+  </si>
+  <si>
+    <t>C_RU_LongDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Code</t>
+  </si>
+  <si>
+    <t>T_Desc</t>
+  </si>
+  <si>
+    <t>T_Unit</t>
+  </si>
+  <si>
+    <t>T_Discipline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentTypeName</t>
+  </si>
+  <si>
+    <t>DesignQty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,26 +1813,26 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:P3"/>
+      <selection activeCell="Q7" sqref="Q7:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="16" width="10.125" customWidth="1"/>
     <col min="17" max="20" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:20" ht="30" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1764,7 +1851,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:20" ht="30" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1787,13 +1874,13 @@
       <c r="S3" s="18"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:20" ht="15" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -1810,9 +1897,9 @@
       <c r="S4" s="18"/>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:20" ht="15" customHeight="1">
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1833,7 +1920,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:20" ht="30" customHeight="1">
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1850,13 +1937,13 @@
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="18"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:20" ht="30" customHeight="1">
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1873,13 +1960,13 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="18"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:20" ht="27" customHeight="1">
       <c r="B8" s="23" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1989,7 @@
       <c r="S8" s="24"/>
       <c r="T8" s="25"/>
     </row>
-    <row r="9" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:20" ht="27" customHeight="1">
       <c r="B9" s="26"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
@@ -1923,7 +2010,7 @@
       <c r="S9" s="24"/>
       <c r="T9" s="25"/>
     </row>
-    <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:20" ht="27" customHeight="1">
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -1944,7 +2031,7 @@
       <c r="S10" s="24"/>
       <c r="T10" s="25"/>
     </row>
-    <row r="11" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:20" ht="27" customHeight="1">
       <c r="B11" s="26"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -1965,7 +2052,7 @@
       <c r="S11" s="24"/>
       <c r="T11" s="25"/>
     </row>
-    <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:20" ht="27" customHeight="1">
       <c r="B12" s="26"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -1986,7 +2073,7 @@
       <c r="S12" s="24"/>
       <c r="T12" s="25"/>
     </row>
-    <row r="13" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:20" ht="27" customHeight="1">
       <c r="B13" s="26"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -2007,7 +2094,7 @@
       <c r="S13" s="24"/>
       <c r="T13" s="25"/>
     </row>
-    <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:20" ht="27" customHeight="1">
       <c r="B14" s="26"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -2028,7 +2115,7 @@
       <c r="S14" s="24"/>
       <c r="T14" s="25"/>
     </row>
-    <row r="15" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:20" ht="27" customHeight="1">
       <c r="B15" s="26"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -2049,7 +2136,7 @@
       <c r="S15" s="24"/>
       <c r="T15" s="25"/>
     </row>
-    <row r="16" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:20" ht="27" customHeight="1">
       <c r="B16" s="26"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -2070,7 +2157,7 @@
       <c r="S16" s="24"/>
       <c r="T16" s="25"/>
     </row>
-    <row r="17" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:20" ht="27" customHeight="1">
       <c r="B17" s="26"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -2091,7 +2178,7 @@
       <c r="S17" s="24"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:20" ht="27" customHeight="1">
       <c r="B18" s="26"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -2112,7 +2199,7 @@
       <c r="S18" s="24"/>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:20" ht="27" customHeight="1">
       <c r="B19" s="26"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -2133,7 +2220,7 @@
       <c r="S19" s="24"/>
       <c r="T19" s="25"/>
     </row>
-    <row r="20" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:20" ht="27" customHeight="1">
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -2154,7 +2241,7 @@
       <c r="S20" s="24"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:20" ht="27" customHeight="1">
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -2175,7 +2262,7 @@
       <c r="S21" s="24"/>
       <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:20" ht="27" customHeight="1">
       <c r="B22" s="26"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2196,7 +2283,7 @@
       <c r="S22" s="24"/>
       <c r="T22" s="25"/>
     </row>
-    <row r="23" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:20" ht="27" customHeight="1">
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -2217,7 +2304,7 @@
       <c r="S23" s="24"/>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:20" ht="27" customHeight="1">
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -2238,7 +2325,7 @@
       <c r="S24" s="24"/>
       <c r="T24" s="25"/>
     </row>
-    <row r="25" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" ht="27" customHeight="1">
       <c r="B25" s="29"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2259,7 +2346,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="27"/>
     </row>
-    <row r="26" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" ht="27" customHeight="1">
       <c r="B26" s="29"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2280,7 +2367,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="27"/>
     </row>
-    <row r="27" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" ht="27" customHeight="1">
       <c r="B27" s="29"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2301,7 +2388,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="27"/>
     </row>
-    <row r="28" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="27" customHeight="1">
       <c r="B28" s="29"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2322,7 +2409,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="27"/>
     </row>
-    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1">
       <c r="B29" s="30" t="s">
         <v>1</v>
       </c>
@@ -2407,13 +2494,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="4" width="15.625" customWidth="1"/>
@@ -2424,7 +2511,7 @@
     <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -2445,7 +2532,7 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30" customHeight="1">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -2460,7 +2547,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="24.95" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
@@ -2495,7 +2582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2520,22 +2607,78 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="18" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2550,7 +2693,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2565,7 +2708,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2580,7 +2723,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2595,7 +2738,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="18" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2610,7 +2753,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="18" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2625,7 +2768,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="18" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2640,7 +2783,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="18" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2655,7 +2798,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2670,7 +2813,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="18" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2685,7 +2828,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="18" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2700,7 +2843,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="18" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2715,7 +2858,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2730,7 +2873,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2745,7 +2888,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2760,7 +2903,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2775,7 +2918,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2790,7 +2933,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2805,7 +2948,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2820,7 +2963,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2835,7 +2978,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2850,7 +2993,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2865,7 +3008,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2880,8 +3023,8 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:13" ht="27" customHeight="1"/>
+    <row r="30" spans="1:13" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:C2"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546DCDB-23AC-4EA9-9356-25C4596D099B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AA521C-9F4D-48C6-A9F4-C08A50A8963C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="C_EN_ShortDesc" localSheetId="1">次页!$M$5</definedName>
     <definedName name="C_RU_LongDesc" localSheetId="1">次页!$Q$5</definedName>
     <definedName name="C_RU_ShortDesc" localSheetId="1">次页!$N$5</definedName>
+    <definedName name="C_Seq" localSheetId="1">次页!$Y$5</definedName>
     <definedName name="ComponentTypeName" localSheetId="1">次页!$V$5</definedName>
     <definedName name="DesignQty" localSheetId="1">次页!$W$5</definedName>
     <definedName name="P_CN_LongDesc" localSheetId="1">次页!$E$5</definedName>
@@ -30,11 +31,13 @@
     <definedName name="P_EN_SizeDesc" localSheetId="1">次页!$I$5</definedName>
     <definedName name="P_RU_LongDesc" localSheetId="1">次页!$G$5</definedName>
     <definedName name="P_RU_ShortDesc" localSheetId="1">次页!$D$5</definedName>
+    <definedName name="P_Seq" localSheetId="1">次页!$Z$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
     <definedName name="T_Code" localSheetId="1">次页!$R$5</definedName>
     <definedName name="T_Desc" localSheetId="1">次页!$S$5</definedName>
     <definedName name="T_Discipline" localSheetId="1">次页!$U$5</definedName>
+    <definedName name="T_Seq" localSheetId="1">次页!$X$5</definedName>
     <definedName name="T_Unit" localSheetId="1">次页!$T$5</definedName>
     <definedName name="公司_COMPANY">次页!$A$1</definedName>
   </definedNames>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>管道综合材料表
 Overall Material Take-off</t>
@@ -821,6 +824,18 @@
   </si>
   <si>
     <t>DesignQty</t>
+  </si>
+  <si>
+    <t>C_Seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1265,11 +1280,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1315,33 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1812,7 +1827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7:T7"/>
     </sheetView>
   </sheetViews>
@@ -1826,624 +1841,648 @@
     <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20" ht="30" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="15" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="2:20" ht="30" customHeight="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="17" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1">
       <c r="B4" s="2"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="17" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="17" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="2:20" ht="27" customHeight="1">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="2:20" ht="27" customHeight="1">
-      <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="2:20" ht="27" customHeight="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="2:20" ht="27" customHeight="1">
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="2:20" ht="27" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="2:20" ht="27" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="2:20" ht="27" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="2:20" ht="27" customHeight="1">
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="2:20" ht="27" customHeight="1">
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="2:20" ht="27" customHeight="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="2:20" ht="27" customHeight="1">
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="25"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="2:20" ht="27" customHeight="1">
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20" spans="2:20" ht="27" customHeight="1">
-      <c r="B20" s="26"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="2:20" ht="27" customHeight="1">
-      <c r="B21" s="26"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" spans="2:20" ht="27" customHeight="1">
-      <c r="B22" s="26"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="2:20" ht="27" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="2:20" ht="27" customHeight="1">
-      <c r="B24" s="26"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="25"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="2:20" ht="27" customHeight="1">
-      <c r="B25" s="29"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="27"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11"/>
     </row>
     <row r="26" spans="2:20" ht="27" customHeight="1">
-      <c r="B26" s="29"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="27"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" spans="2:20" ht="27" customHeight="1">
-      <c r="B27" s="29"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="27"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" spans="2:20" ht="27" customHeight="1">
-      <c r="B28" s="29"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="27"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6" t="s">
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="28"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="F2:P3"/>
+    <mergeCell ref="F4:P7"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="C2:E4"/>
     <mergeCell ref="B8:T24"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="R25:T25"/>
@@ -2460,30 +2499,6 @@
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="F2:P3"/>
-    <mergeCell ref="F4:P7"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C2:E4"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
@@ -2494,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2511,7 +2526,7 @@
     <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -2532,7 +2547,7 @@
       </c>
       <c r="M1" s="35"/>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1">
+    <row r="2" spans="1:26" ht="30" customHeight="1">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -2547,7 +2562,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:23" ht="24.95" customHeight="1">
+    <row r="3" spans="1:26" ht="24.95" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:26" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2607,7 +2622,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1">
+    <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -2677,8 +2692,17 @@
       <c r="W5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1">
+      <c r="X5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2693,7 +2717,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="18" customHeight="1">
+    <row r="7" spans="1:26" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2708,7 +2732,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="18" customHeight="1">
+    <row r="8" spans="1:26" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2723,7 +2747,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:23" ht="18" customHeight="1">
+    <row r="9" spans="1:26" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2738,7 +2762,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:23" ht="18" customHeight="1">
+    <row r="10" spans="1:26" ht="18" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2753,7 +2777,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:23" ht="18" customHeight="1">
+    <row r="11" spans="1:26" ht="18" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2768,7 +2792,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:23" ht="18" customHeight="1">
+    <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2783,7 +2807,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:23" ht="18" customHeight="1">
+    <row r="13" spans="1:26" ht="18" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2798,7 +2822,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:23" ht="18" customHeight="1">
+    <row r="14" spans="1:26" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2813,7 +2837,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1">
+    <row r="15" spans="1:26" ht="18" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2828,7 +2852,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1">
+    <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/ReportTemplates/管道综合材料表/管道综合材料表_ENG.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AA521C-9F4D-48C6-A9F4-C08A50A8963C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7DBB1-8E4F-4398-957A-6114D329730A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="765" windowWidth="24435" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="次页" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="C_CN_LongDesc" localSheetId="1">次页!$O$5</definedName>
-    <definedName name="C_CN_ShortDesc" localSheetId="1">次页!$L$5</definedName>
-    <definedName name="C_Code" localSheetId="1">次页!$K$5</definedName>
-    <definedName name="C_EN_LongDesc" localSheetId="1">次页!$P$5</definedName>
-    <definedName name="C_EN_ShortDesc" localSheetId="1">次页!$M$5</definedName>
-    <definedName name="C_RU_LongDesc" localSheetId="1">次页!$Q$5</definedName>
-    <definedName name="C_RU_ShortDesc" localSheetId="1">次页!$N$5</definedName>
-    <definedName name="C_Seq" localSheetId="1">次页!$Y$5</definedName>
-    <definedName name="ComponentTypeName" localSheetId="1">次页!$V$5</definedName>
-    <definedName name="DesignQty" localSheetId="1">次页!$W$5</definedName>
-    <definedName name="P_CN_LongDesc" localSheetId="1">次页!$E$5</definedName>
-    <definedName name="P_CN_ShortDesc" localSheetId="1">次页!$B$5</definedName>
-    <definedName name="P_CN_SizeDesc" localSheetId="1">次页!$H$5</definedName>
-    <definedName name="P_Code" localSheetId="1">次页!$A$5</definedName>
-    <definedName name="P_EN_LongDesc" localSheetId="1">次页!$F$5</definedName>
-    <definedName name="P_EN_ShortDesc" localSheetId="1">次页!$C$5</definedName>
-    <definedName name="P_EN_SizeDesc" localSheetId="1">次页!$I$5</definedName>
-    <definedName name="P_RU_LongDesc" localSheetId="1">次页!$G$5</definedName>
-    <definedName name="P_RU_ShortDesc" localSheetId="1">次页!$D$5</definedName>
-    <definedName name="P_Seq" localSheetId="1">次页!$Z$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$M</definedName>
+    <definedName name="C_Code">次页!$C$4</definedName>
+    <definedName name="C_EN_ShortDesc">次页!$D$4</definedName>
+    <definedName name="C_Seq">次页!$B$4</definedName>
+    <definedName name="P_CN_ShortDesc" localSheetId="1">次页!$K$3</definedName>
+    <definedName name="P_CN_SizeDesc" localSheetId="1">次页!$J$3</definedName>
+    <definedName name="P_Code">次页!$R$3</definedName>
+    <definedName name="P_ComponentTypeName" localSheetId="1">次页!$H$3</definedName>
+    <definedName name="P_DesignQty" localSheetId="1">次页!$M$4</definedName>
+    <definedName name="P_SeqNo" localSheetId="1">次页!$A$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">次页!$A:$S</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$B$2:$T$29</definedName>
-    <definedName name="T_Code" localSheetId="1">次页!$R$5</definedName>
-    <definedName name="T_Desc" localSheetId="1">次页!$S$5</definedName>
-    <definedName name="T_Discipline" localSheetId="1">次页!$U$5</definedName>
-    <definedName name="T_Seq" localSheetId="1">次页!$X$5</definedName>
-    <definedName name="T_Unit" localSheetId="1">次页!$T$5</definedName>
+    <definedName name="T_Desc">次页!$E$4</definedName>
+    <definedName name="T_Discipline">次页!$G$4</definedName>
+    <definedName name="T_Unit">次页!$F$4</definedName>
     <definedName name="公司_COMPANY">次页!$A$1</definedName>
   </definedNames>
   <calcPr calcId="122211" fullPrecision="0"/>
@@ -46,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>管道综合材料表
 Overall Material Take-off</t>
@@ -520,6 +507,28 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>设计阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:
+Phase:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="134"/>
@@ -733,108 +742,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>设计阶段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:$Revision$--$Version$
-Phase:</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Code</t>
-  </si>
-  <si>
-    <t>P_CN_ShortDesc</t>
-  </si>
-  <si>
-    <t>P_EN_ShortDesc</t>
-  </si>
-  <si>
-    <t>P_RU_ShortDesc</t>
-  </si>
-  <si>
-    <t>P_CN_LongDesc</t>
-  </si>
-  <si>
-    <t>P_EN_LongDesc</t>
-  </si>
-  <si>
-    <t>P_RU_LongDesc</t>
-  </si>
-  <si>
-    <t>P_CN_SizeDesc</t>
-  </si>
-  <si>
-    <t>P_EN_SizeDesc</t>
-  </si>
-  <si>
-    <t>P_RU_SizeDesc</t>
-  </si>
-  <si>
-    <t>C_Code</t>
-  </si>
-  <si>
-    <t>C_CN_ShortDesc</t>
-  </si>
-  <si>
-    <t>C_EN_ShortDesc</t>
-  </si>
-  <si>
-    <t>C_RU_ShortDesc</t>
-  </si>
-  <si>
-    <t>C_CN_LongDesc</t>
-  </si>
-  <si>
-    <t>C_EN_LongDesc</t>
-  </si>
-  <si>
-    <t>C_RU_LongDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Code</t>
-  </si>
-  <si>
-    <t>T_Desc</t>
-  </si>
-  <si>
-    <t>T_Unit</t>
-  </si>
-  <si>
-    <t>T_Discipline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComponentTypeName</t>
-  </si>
-  <si>
-    <t>DesignQty</t>
-  </si>
-  <si>
-    <t>C_Seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Seq</t>
+    <t>物资编码序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资编码英文描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +770,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,7 +1199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1280,6 +1208,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1407,6 +1338,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1828,634 +1762,634 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:T7"/>
+      <selection activeCell="B8" sqref="B8:T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="16" width="10.125" customWidth="1"/>
     <col min="17" max="20" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:20" ht="30" customHeight="1">
+    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+    </row>
+    <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-    </row>
-    <row r="3" spans="2:20" ht="30" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1">
-      <c r="B5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
-    </row>
-    <row r="6" spans="2:20" ht="30" customHeight="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="2:20" ht="30" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="2:20" ht="27" customHeight="1">
-      <c r="B8" s="6" t="s">
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+    </row>
+    <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="2:20" ht="27" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="2:20" ht="27" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="2:20" ht="27" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="2:20" ht="27" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="2:20" ht="27" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="2:20" ht="27" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="2:20" ht="27" customHeight="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="2:20" ht="27" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="2:20" ht="27" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="2:20" ht="27" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="2:20" ht="27" customHeight="1">
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="2:20" ht="27" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="2:20" ht="27" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="2:20" ht="27" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="2:20" ht="27" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="2:20" ht="27" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="2:20" ht="27" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="2:20" ht="27" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="2:20" ht="27" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" spans="2:20" ht="27" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="11"/>
-    </row>
-    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1">
-      <c r="B29" s="15" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="2:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="12" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12" t="s">
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12" t="s">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -2509,200 +2443,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="55.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="11" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="1" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="55.625" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="16.625" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
       <c r="K1" s="44"/>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="35"/>
-    </row>
-    <row r="2" spans="1:26" ht="30" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="S1" s="36"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="46"/>
       <c r="K2" s="47"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:26" ht="24.95" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="I3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="J3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="K3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="L3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="M3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="37" t="s">
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="S3" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="5" t="s">
+    <row r="4" spans="1:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42"/>
+      <c r="B4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2716,8 +2627,14 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2731,8 +2648,14 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="18" customHeight="1">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2746,8 +2669,14 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="18" customHeight="1">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2761,8 +2690,14 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="18" customHeight="1">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2776,8 +2711,14 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2791,8 +2732,14 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2806,8 +2753,14 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="18" customHeight="1">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2821,8 +2774,14 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2836,8 +2795,14 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2851,8 +2816,14 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2866,8 +2837,14 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2881,8 +2858,14 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2896,8 +2879,14 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2911,8 +2900,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2926,8 +2921,14 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2941,8 +2942,14 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2956,8 +2963,14 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2971,8 +2984,14 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2986,8 +3005,14 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3001,8 +3026,14 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3016,8 +3047,14 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3031,8 +3068,14 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3046,25 +3089,31 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="27" customHeight="1"/>
-    <row r="30" spans="1:13" ht="27" customHeight="1"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J1:Q2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="D1:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
